--- a/Employee_Reports28/Sampath Chamin Q0208.xlsx
+++ b/Employee_Reports28/Sampath Chamin Q0208.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -571,11 +568,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +617,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +666,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +715,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -767,11 +764,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -816,11 +813,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +862,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -914,11 +911,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -963,11 +960,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1012,11 +1009,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1061,11 +1058,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1110,11 +1107,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1159,11 +1156,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1208,11 +1205,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1257,11 +1254,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1306,11 +1303,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1321,51 +1318,51 @@
       <c r="K18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="4" t="n">
         <v/>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>03-Oct-2024</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>03-Oct-2025</t>
         </is>
       </c>
-      <c r="H19" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="I19" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K19" s="3" t="inlineStr"/>
+      <c r="H19" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1401,11 +1398,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1448,11 +1445,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-335</v>
+        <v>-343</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1485,11 +1482,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1522,11 +1519,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1569,11 +1566,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1616,11 +1613,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1663,11 +1660,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1710,11 +1707,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1757,11 +1754,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1794,11 +1791,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
